--- a/Base de datos/Diccionario.xlsx
+++ b/Base de datos/Diccionario.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="164">
   <si>
     <t>Entidad</t>
   </si>
@@ -213,36 +213,9 @@
     <t>Descripcion de la carpeta</t>
   </si>
   <si>
-    <t>TBL_ORGANIZACIONES</t>
-  </si>
-  <si>
-    <t>CODIGO_ADMIN</t>
-  </si>
-  <si>
     <t>CODIGO_LUGAR</t>
   </si>
   <si>
-    <t>Llave foranea de TBL_USUARIOS, usuario que administra la organizacion</t>
-  </si>
-  <si>
-    <t>Llave foranea de TBL_LUGARES, lugar en el que se asentua la organizacion</t>
-  </si>
-  <si>
-    <t>Fecha de creacion de la organizacion (en la base de datos)</t>
-  </si>
-  <si>
-    <t>Nombre de la organizacion</t>
-  </si>
-  <si>
-    <t>Descripcion de la organizacion</t>
-  </si>
-  <si>
-    <t>Telefono de la organizacion</t>
-  </si>
-  <si>
-    <t>Fotografia de la organizacion</t>
-  </si>
-  <si>
     <t>TBL_LUGARES</t>
   </si>
   <si>
@@ -288,24 +261,6 @@
     <t>Tipo de permiso que se otorga</t>
   </si>
   <si>
-    <t>TBL_USUARIOS_X_ORG</t>
-  </si>
-  <si>
-    <t>Fecha en la que se registra el usuario en la organizacion</t>
-  </si>
-  <si>
-    <t>Llave foranea de TBL_USUARIOS, usuario que se quiere registrar en la ORG</t>
-  </si>
-  <si>
-    <t>Llave foranea de TBL_ORGANIZACIONES, organizacion a la que se quiere registrar un usuario</t>
-  </si>
-  <si>
-    <t>TBL_PERMISOS_ORG</t>
-  </si>
-  <si>
-    <t>Llave foranea de TBL_ORGANIZACIONES, organizacion a la que se quiere aniadir un permiso</t>
-  </si>
-  <si>
     <t>Llave foranea de TBL_USUARIOS, usuario al que se le quiere dar un permiso</t>
   </si>
   <si>
@@ -375,36 +330,6 @@
     <t>Tipo de privacidad que se quiere otorgar</t>
   </si>
   <si>
-    <t>TBL_COMENTARIOS</t>
-  </si>
-  <si>
-    <t>CODIGO_COMENTARIO</t>
-  </si>
-  <si>
-    <t>CODIGO_COMENTARIO_PADRE</t>
-  </si>
-  <si>
-    <t>COMENTARIO</t>
-  </si>
-  <si>
-    <t>FECHA_PUBLICACION</t>
-  </si>
-  <si>
-    <t>Fecha en que se publica en comentario</t>
-  </si>
-  <si>
-    <t>Texto del comentario</t>
-  </si>
-  <si>
-    <t>Llave foranea recursiva, comentario al que pertenece el comentario actual</t>
-  </si>
-  <si>
-    <t>Llave foranea de TBL_ARCHIVOS, archivo al que se quiere comentar</t>
-  </si>
-  <si>
-    <t>Llave foranea de TBL_USUARIOS, usuario que esta comentando</t>
-  </si>
-  <si>
     <t>TBL_PLANES</t>
   </si>
   <si>
@@ -559,30 +484,6 @@
   </si>
   <si>
     <t>Llave foranea de TBL_USUARIOS, usuario que visita el archivo/carpeta</t>
-  </si>
-  <si>
-    <t>TBL_SUSCRIPCIONES</t>
-  </si>
-  <si>
-    <t>CODIGO_SUSCRIPTOR</t>
-  </si>
-  <si>
-    <t>FECHA_SUSCRIPCION</t>
-  </si>
-  <si>
-    <t>Fecha en la que se suscribe el suscriptor</t>
-  </si>
-  <si>
-    <t>Llave foranea de TBL_USUARIOS, usuario que se quiere suscribir</t>
-  </si>
-  <si>
-    <t>Llave foranea de TBL_USUARIOS, usuario al que se esta suscribiendo</t>
-  </si>
-  <si>
-    <t>Llave foranea de TBL_CARPETAS, carpeta a la que se esta suscribiendo</t>
-  </si>
-  <si>
-    <t>Llave foranea de TBL_ARCHIVOS, archivo al que se esta suscribiendo</t>
   </si>
   <si>
     <t>*</t>
@@ -963,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I121"/>
+  <dimension ref="A2:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,10 +1039,10 @@
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="I15" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -1158,10 +1059,10 @@
         <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="I16" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1175,10 +1076,10 @@
         <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="I17" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1192,7 +1093,7 @@
         <v>18</v>
       </c>
       <c r="I18" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1206,7 +1107,7 @@
         <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1255,7 +1156,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="C24" t="s">
         <v>42</v>
@@ -1286,7 +1187,7 @@
         <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
@@ -1360,13 +1261,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -1377,10 +1278,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E34" t="s">
         <v>51</v>
@@ -1388,13 +1289,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="E35" t="s">
         <v>18</v>
@@ -1402,10 +1303,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E36" t="s">
         <v>18</v>
@@ -1413,82 +1314,82 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E37" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D41" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="E41" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="D42" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B43" t="s">
-        <v>89</v>
-      </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="D43" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="E43" t="s">
         <v>18</v>
@@ -1496,46 +1397,49 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D44" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="E44" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="D45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" t="s">
         <v>90</v>
-      </c>
-      <c r="E45" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" t="s">
-        <v>95</v>
       </c>
       <c r="E47" t="s">
         <v>18</v>
@@ -1543,24 +1447,24 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
         <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E49" t="s">
         <v>18</v>
@@ -1568,46 +1472,49 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="D50" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>95</v>
       </c>
-      <c r="E50" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" t="s">
-        <v>96</v>
-      </c>
-      <c r="E51" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" t="s">
-        <v>100</v>
-      </c>
-      <c r="E52" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E53" t="s">
         <v>18</v>
@@ -1615,24 +1522,21 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="D54" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E54" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>74</v>
-      </c>
       <c r="C55" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="D55" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="E55" t="s">
         <v>18</v>
@@ -1640,21 +1544,24 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>100</v>
+      </c>
       <c r="C57" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="E57" t="s">
         <v>18</v>
@@ -1662,10 +1569,10 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D58" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E58" t="s">
         <v>51</v>
@@ -1673,10 +1580,10 @@
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C59" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
         <v>21</v>
@@ -1687,49 +1594,46 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D60" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>101</v>
-      </c>
-      <c r="C61" t="s">
-        <v>54</v>
-      </c>
-      <c r="D61" t="s">
-        <v>105</v>
-      </c>
-      <c r="E61" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D62" t="s">
+        <v>112</v>
+      </c>
+      <c r="E62" t="s">
         <v>104</v>
-      </c>
-      <c r="E62" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="E63" t="s">
         <v>18</v>
@@ -1737,24 +1641,21 @@
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="E64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>107</v>
-      </c>
       <c r="C65" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="E65" t="s">
         <v>18</v>
@@ -1762,71 +1663,68 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="D66" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>110</v>
-      </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="D67" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="D68" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="D69" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>122</v>
+      </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="D70" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="E70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>115</v>
-      </c>
       <c r="C71" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="D71" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="E71" t="s">
         <v>18</v>
@@ -1834,46 +1732,46 @@
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="D72" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>42</v>
+      </c>
+      <c r="D73" t="s">
+        <v>127</v>
+      </c>
+      <c r="E73" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>118</v>
-      </c>
-      <c r="C73" t="s">
-        <v>119</v>
-      </c>
-      <c r="D73" t="s">
-        <v>21</v>
-      </c>
-      <c r="E73" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D74" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E74" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>130</v>
+      </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D75" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="E75" t="s">
         <v>18</v>
@@ -1881,46 +1779,46 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>5</v>
+        <v>131</v>
       </c>
       <c r="D76" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E76" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="D77" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E77" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>135</v>
+      </c>
       <c r="C78" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="E78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>128</v>
-      </c>
       <c r="C79" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D79" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="E79" t="s">
         <v>18</v>
@@ -1928,10 +1826,10 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="D80" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E80" t="s">
         <v>18</v>
@@ -1939,35 +1837,35 @@
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D81" t="s">
+        <v>138</v>
+      </c>
+      <c r="E81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>136</v>
       </c>
-      <c r="E81" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="D82" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="E82" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>130</v>
-      </c>
       <c r="C83" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="D83" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="E83" t="s">
         <v>18</v>
@@ -1975,10 +1873,10 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="E84" t="s">
         <v>18</v>
@@ -1986,365 +1884,75 @@
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
       <c r="D85" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E85" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D86" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E86" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>149</v>
+      </c>
       <c r="C87" t="s">
-        <v>139</v>
+        <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E87" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="D88" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="D89" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>150</v>
+      </c>
+      <c r="D90" t="s">
+        <v>151</v>
+      </c>
+      <c r="E90" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
-        <v>147</v>
-      </c>
-      <c r="C90" t="s">
-        <v>148</v>
-      </c>
-      <c r="D90" t="s">
-        <v>21</v>
-      </c>
-      <c r="E90" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C91" t="s">
-        <v>149</v>
-      </c>
-      <c r="D91" t="s">
-        <v>153</v>
-      </c>
-      <c r="E91" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
-        <v>35</v>
-      </c>
-      <c r="D92" t="s">
-        <v>154</v>
-      </c>
-      <c r="E92" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
-        <v>42</v>
-      </c>
-      <c r="D93" t="s">
-        <v>152</v>
-      </c>
-      <c r="E93" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C94" t="s">
-        <v>150</v>
-      </c>
-      <c r="D94" t="s">
-        <v>151</v>
-      </c>
-      <c r="E94" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>155</v>
-      </c>
-      <c r="C95" t="s">
-        <v>36</v>
-      </c>
-      <c r="D95" t="s">
-        <v>21</v>
-      </c>
-      <c r="E95" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
-        <v>156</v>
-      </c>
-      <c r="D96" t="s">
-        <v>159</v>
-      </c>
-      <c r="E96" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
-        <v>157</v>
-      </c>
-      <c r="D97" t="s">
-        <v>158</v>
-      </c>
-      <c r="E97" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>160</v>
-      </c>
-      <c r="C98" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98" t="s">
-        <v>164</v>
-      </c>
-      <c r="E98" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
-        <v>35</v>
-      </c>
-      <c r="D99" t="s">
-        <v>165</v>
-      </c>
-      <c r="E99" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C100" t="s">
-        <v>54</v>
-      </c>
-      <c r="D100" t="s">
-        <v>166</v>
-      </c>
-      <c r="E100" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
-        <v>162</v>
-      </c>
-      <c r="D101" t="s">
-        <v>163</v>
-      </c>
-      <c r="E101" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>161</v>
-      </c>
-      <c r="C102" t="s">
-        <v>167</v>
-      </c>
-      <c r="D102" t="s">
-        <v>21</v>
-      </c>
-      <c r="E102" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C103" t="s">
-        <v>35</v>
-      </c>
-      <c r="D103" t="s">
-        <v>172</v>
-      </c>
-      <c r="E103" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C104" t="s">
-        <v>5</v>
-      </c>
-      <c r="D104" t="s">
-        <v>173</v>
-      </c>
-      <c r="E104" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C105" t="s">
-        <v>168</v>
-      </c>
-      <c r="D105" t="s">
-        <v>170</v>
-      </c>
-      <c r="E105" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C106" t="s">
-        <v>169</v>
-      </c>
-      <c r="D106" t="s">
-        <v>171</v>
-      </c>
-      <c r="E106" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>174</v>
-      </c>
-      <c r="C107" t="s">
-        <v>5</v>
-      </c>
-      <c r="D107" t="s">
-        <v>179</v>
-      </c>
-      <c r="E107" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
-        <v>54</v>
-      </c>
-      <c r="D108" t="s">
-        <v>177</v>
-      </c>
-      <c r="E108" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C109" t="s">
-        <v>35</v>
-      </c>
-      <c r="D109" t="s">
-        <v>178</v>
-      </c>
-      <c r="E109" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C110" t="s">
-        <v>175</v>
-      </c>
-      <c r="D110" t="s">
-        <v>176</v>
-      </c>
-      <c r="E110" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>180</v>
-      </c>
-      <c r="C111" t="s">
-        <v>181</v>
-      </c>
-      <c r="D111" t="s">
-        <v>184</v>
-      </c>
-      <c r="E111" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" t="s">
-        <v>185</v>
-      </c>
-      <c r="E112" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
-        <v>54</v>
-      </c>
-      <c r="D113" t="s">
-        <v>186</v>
-      </c>
-      <c r="E113" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C114" t="s">
-        <v>35</v>
-      </c>
-      <c r="D114" t="s">
-        <v>187</v>
-      </c>
-      <c r="E114" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C115" t="s">
-        <v>182</v>
-      </c>
-      <c r="D115" t="s">
-        <v>183</v>
-      </c>
-      <c r="E115" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B121" s="2"/>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
